--- a/Blood4Life/Sprint-3/Requisitos/Blood4Life - Requisitos-Backlog V3.xlsx
+++ b/Blood4Life/Sprint-3/Requisitos/Blood4Life - Requisitos-Backlog V3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f121773a5ae8ec2/Área de Trabalho/BANDTEC/20201-3adsa-grupo8/Blood4Life/Sprint-1/Requisitos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f121773a5ae8ec2/Área de Trabalho/BANDTEC/Blood4Life/Blood4Life/Sprint-3/Requisitos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5E2B9AD0-52D5-458E-BE68-15FD63F9E837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CAA2EF1-8855-4F4A-A3FB-FB33414AB2A1}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{5E2B9AD0-52D5-458E-BE68-15FD63F9E837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F889CA25-023E-43F2-B3CA-37B307D63314}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{877439CE-2986-4118-8806-57B2D1B2DD9C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="239">
   <si>
     <t>Ref./</t>
   </si>
@@ -722,6 +722,45 @@
   </si>
   <si>
     <t>3.10</t>
+  </si>
+  <si>
+    <t>Site institucional será desenvolvido com React</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.8.1</t>
+  </si>
+  <si>
+    <t>Todas as paginas deverão ser desenvolvidas em React</t>
+  </si>
+  <si>
+    <t>Deverá ter funcionalidades de Importação/Exportação sem usar componentes (Header, Detail, Trailer)</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Deve seguir requisitos de UX/UI</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>Deverá ser criado testes UAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementação de fila/pilha no backend. </t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>Inclusão de dois microserviços no backend.</t>
   </si>
 </sst>
 </file>
@@ -1078,62 +1117,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1790,676 +1829,720 @@
       <c r="B1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="46"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="44"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="F3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28" t="s">
+      <c r="F6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="F7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30" t="s">
+      <c r="F9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30" t="s">
+      <c r="F10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="F11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="F12" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="15">
         <v>2</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" ht="28.8">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="15">
         <v>3</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34" t="s">
+      <c r="F16" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="G17" s="43"/>
+      <c r="H17" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30" t="s">
+      <c r="G18" s="43"/>
+      <c r="H18" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30" t="s">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="43"/>
+      <c r="H20" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="37" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39" t="s">
+      <c r="F21" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="15">
         <v>4</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="28" t="s">
+      <c r="F24" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="29"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="15">
         <v>5</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35" t="s">
+      <c r="F25" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="36"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="28" t="s">
+      <c r="F26" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="15">
         <v>6</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35" t="s">
+      <c r="F27" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="36"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="28" t="s">
+      <c r="F28" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="28" t="s">
+      <c r="G29" s="43"/>
+      <c r="H29" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="29"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" ht="20.25" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="31" t="s">
+      <c r="F30" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="32"/>
+      <c r="I30" s="35"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="31" t="s">
+      <c r="F31" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="H31" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="32"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="31" t="s">
+      <c r="F32" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I32" s="32"/>
+      <c r="I32" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="C17:D17"/>
@@ -2476,67 +2559,23 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2544,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4917DAEF-DAF6-4CA8-A6A9-2FBE40F62A43}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2718,82 +2757,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="24">
+    <row r="10" spans="1:6" ht="26.4">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="12" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="24"/>
       <c r="B14" s="24" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>56</v>
@@ -2805,10 +2844,10 @@
     <row r="15" spans="1:6">
       <c r="A15" s="24"/>
       <c r="B15" s="24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -2823,31 +2862,31 @@
     <row r="16" spans="1:6">
       <c r="A16" s="24"/>
       <c r="B16" s="24" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="26.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="24"/>
       <c r="B17" s="24" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>56</v>
@@ -2856,16 +2895,16 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="26.4">
+    <row r="18" spans="1:6">
       <c r="A18" s="24"/>
       <c r="B18" s="24" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>56</v>
@@ -2877,10 +2916,10 @@
     <row r="19" spans="1:6">
       <c r="A19" s="24"/>
       <c r="B19" s="24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>7</v>
@@ -2892,16 +2931,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="24"/>
       <c r="B20" s="24" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>56</v>
@@ -2910,13 +2949,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="26.4">
       <c r="A21" s="24"/>
       <c r="B21" s="24" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>7</v>
@@ -2925,37 +2964,37 @@
         <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="24"/>
       <c r="B22" s="24" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="24"/>
       <c r="B23" s="24" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>56</v>
@@ -2967,31 +3006,31 @@
     <row r="24" spans="1:6">
       <c r="A24" s="24"/>
       <c r="B24" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="24"/>
       <c r="B25" s="24" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>56</v>
@@ -3003,64 +3042,64 @@
     <row r="26" spans="1:6">
       <c r="A26" s="24"/>
       <c r="B26" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="26.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="24"/>
       <c r="B27" s="24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="24"/>
       <c r="B28" s="24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="26.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="24"/>
       <c r="B29" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>7</v>
@@ -3069,16 +3108,16 @@
         <v>56</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26.4">
       <c r="A30" s="24"/>
       <c r="B30" s="24" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>7</v>
@@ -3087,34 +3126,34 @@
         <v>56</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="24"/>
       <c r="B31" s="24" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26.4">
       <c r="A32" s="24"/>
       <c r="B32" s="24" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>7</v>
@@ -3129,13 +3168,13 @@
     <row r="33" spans="1:6" ht="26.4">
       <c r="A33" s="24"/>
       <c r="B33" s="24" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>56</v>
@@ -3145,27 +3184,33 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="24">
-        <v>3</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="24"/>
       <c r="B35" s="24" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>56</v>
@@ -3174,16 +3219,16 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="26.4">
       <c r="A36" s="24"/>
       <c r="B36" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>56</v>
@@ -3195,16 +3240,16 @@
     <row r="37" spans="1:6">
       <c r="A37" s="24"/>
       <c r="B37" s="24" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>143</v>
@@ -3213,16 +3258,16 @@
     <row r="38" spans="1:6">
       <c r="A38" s="24"/>
       <c r="B38" s="24" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>143</v>
@@ -3231,49 +3276,43 @@
     <row r="39" spans="1:6">
       <c r="A39" s="24"/>
       <c r="B39" s="24" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="26.4">
+      <c r="A40" s="24">
+        <v>3</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="24"/>
       <c r="B41" s="24" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>56</v>
@@ -3282,31 +3321,31 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="26.4">
+    <row r="42" spans="1:6">
       <c r="A42" s="24"/>
       <c r="B42" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="24"/>
       <c r="B43" s="24" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>7</v>
@@ -3321,16 +3360,16 @@
     <row r="44" spans="1:6">
       <c r="A44" s="24"/>
       <c r="B44" s="24" t="s">
-        <v>218</v>
+        <v>102</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>143</v>
@@ -3339,55 +3378,67 @@
     <row r="45" spans="1:6">
       <c r="A45" s="24"/>
       <c r="B45" s="24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="24"/>
       <c r="B46" s="24" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="24">
-        <v>4</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="26.4">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="26.4">
       <c r="A48" s="24"/>
       <c r="B48" s="24" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>56</v>
@@ -3399,34 +3450,34 @@
     <row r="49" spans="1:6">
       <c r="A49" s="24"/>
       <c r="B49" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="24"/>
       <c r="B50" s="24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>143</v>
@@ -3435,36 +3486,148 @@
     <row r="51" spans="1:6">
       <c r="A51" s="24"/>
       <c r="B51" s="24" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="24"/>
       <c r="B52" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="24">
+        <v>4</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="D59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3479,12 +3642,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3646,15 +3806,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BD8FF8-7BF6-40B9-90F6-F16DE9677F3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9243BB37-D979-4D18-BCB9-4CF6AC944630}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3678,10 +3842,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9243BB37-D979-4D18-BCB9-4CF6AC944630}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BD8FF8-7BF6-40B9-90F6-F16DE9677F3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>